--- a/sampledata/Ru.xlsx
+++ b/sampledata/Ru.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">entry</t>
   </si>
   <si>
-    <t xml:space="preserve">smiles</t>
+    <t xml:space="preserve">SMILES</t>
   </si>
   <si>
     <t xml:space="preserve">ee.</t>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/sampledata/Ru.xlsx
+++ b/sampledata/Ru.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac_poclab/PycharmProjects/CoMFA_model/sampledata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF3F24F-D7C5-004D-A731-39FA2393A544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1260" yWindow="980" windowWidth="20180" windowHeight="15040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1 - Ru_cat_1127" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="シート1 - Ru_cat_1127" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_Hlk161015579" vbProcedure="false">'シート1 - Ru_cat_1127'!$H$6</definedName>
+    <definedName name="_Hlk161015579" localSheetId="0">'シート1 - Ru_cat_1127'!$H$6</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -23,36 +39,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="150">
-  <si>
-    <t xml:space="preserve">entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMILES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ee.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">er.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(C)cc1)c1ccccc1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="127">
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>SMILES</t>
+  </si>
+  <si>
+    <t>ee.</t>
+  </si>
+  <si>
+    <t>er.</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Reference url</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1021/ol9904139 </t>
@@ -70,14 +86,14 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">et al., Org. Lett.</t>
+      <t>et al., Org. Lett.</t>
     </r>
     <r>
       <rPr>
@@ -91,14 +107,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2000</t>
+      <t>2000</t>
     </r>
     <r>
       <rPr>
@@ -108,26 +124,26 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, 2, 659-662.</t>
+      <t>, 2, 659-662.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(Cl)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(C(F)(F)F)cc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5</t>
+    <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(Cl)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C(F)(F)F)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>table2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5</t>
   </si>
   <si>
     <r>
@@ -141,13 +157,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Angew. Chem. Int.</t>
+      <t>Angew. Chem. Int.</t>
     </r>
     <r>
       <rPr>
@@ -160,7 +176,7 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -170,13 +186,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2001</t>
+      <t>2001</t>
     </r>
     <r>
       <rPr>
@@ -189,13 +205,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">40</t>
+      <t>40</t>
     </r>
     <r>
       <rPr>
@@ -204,428 +220,296 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, 40-73.</t>
+      <t>, 40-73.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">c1ccccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccccc1)C(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)C1CC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C)cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(F)cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(Cl)cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(Br)cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C(F)(F)F)cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(OC)cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(NC(=O)C)cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cc(C)ccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cc(F)ccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cc(Br)ccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cc(C(F)(F)F)ccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cc(OC)ccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(C)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(CCCC)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(c2ccccc2)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(F)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(Br)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(I)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(C(F)(F)F)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(OC)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(C(=O)OC(C)C)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc([N+]([O-])=O)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(N)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cc(F)ccc1)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cc(Cl)ccc1)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C)cc(C)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(F)cc(F)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(Cl)cc(Cl)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C(F)(F)F)cc(C(F)(F)F)cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cc2ccccc2cc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cc(OC)c(OC)c(OC)c1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)(F))c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)(F))c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)(F))c1ccc(Br)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)(F))c1ccc(OC)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccccc1C)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tBuOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccccc1F)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccccc1Cl)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccccc1Br)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccccc1Br)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccccc1OC)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CC=CO1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CC=CO1)CCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CC=CS1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CC=CO1)CCCC=C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CSC=C1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=NC=CS1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=NC=CC=C1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CN=CC=C1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CC=NC=C1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=NC=CC=C1)C(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1CC1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1CCCCC1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme34</t>
+    <t>c1ccccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)C(C)C</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C1CC1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(F)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Cl)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Br)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(F)(F)F)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(C)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(F)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(Br)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(C(F)(F)F)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(OC)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(CCCC)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(c2ccccc2)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(F)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(Br)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(I)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C(F)(F)F)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(OC)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C(=O)OC(C)C)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc([N+]([O-])=O)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(N)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(F)ccc1)CC</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(Cl)ccc1)CC</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C)cc(C)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(F)cc(F)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Cl)cc(Cl)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(F)(F)F)cc(C(F)(F)F)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc2ccccc2cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(OC)c(OC)c(OC)c1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccccc1</t>
+  </si>
+  <si>
+    <t>scheme27</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccc(Br)cc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccc(OC)cc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>scheme30</t>
+  </si>
+  <si>
+    <t>tBuOK</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1F)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1Cl)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1Br)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1Br)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1OC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)C</t>
+  </si>
+  <si>
+    <t>scheme32</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)CCCCC</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CS1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)CCCC=C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CSC=C1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CS1)C</t>
+  </si>
+  <si>
+    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=CC=C1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=NC=C1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1CC1)C</t>
+  </si>
+  <si>
+    <t>scheme33</t>
+  </si>
+  <si>
+    <t>C(=O)(C1CCCCC1)C</t>
+  </si>
+  <si>
+    <t>scheme34</t>
   </si>
   <si>
     <t xml:space="preserve">(R)-XylBINAP/(R)-DAIPEN Ru </t>
   </si>
   <si>
-    <t xml:space="preserve">C(=O)(CN(C)C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(CN(C)c1ccccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(CN(C)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(CN(C)C(=O)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(CNC(=O)c1ccccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(CN(C)C(=O)c1ccccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(CN(C)C(=O)OC(C)(C)C)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccccc1)CCN(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=SC=CC1)CCN(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(COc1ccccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(OC)OC)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(OCC)OCC)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(/C=C/c1ccccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scheme40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(/C=C/c1ccccc1)C(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(/C=C/CCCCC)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(/C=C/C)CC(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(/C=C/C1=C(C)CCCC1(C)(C))C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(/C=C/C1=SC=CC1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C=C(C)C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CCCCC1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=Cc2c(OC)ccc(OC)c2CC1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CCCCCC1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=C(C)CCC1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1021/ol0360795 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">C. Chen, et al., </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Organic Letters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 5039-5042.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C2=NC=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ncccc1)c1ccc(OC)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ncccc1)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(c2nccc3ccccc23)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C1=CN=C([Si](C(C)(C))(C(C)(C))C(C)(C))O1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(c1ncccc1)c2cc(C(F)(F)F)nc3c(C(F)(F)F)cccc23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S)-XylBINAP/(S)-DAIPEN Ru </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ncccc1)c1ccccc1</t>
+    <t>C(=O)(CN(C)C)C</t>
+  </si>
+  <si>
+    <t>scheme36</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)c1ccccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)C(=O)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>O=C(CNC(=O)c1ccccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>O=C(CN(C)C(=O)c1ccccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>O=C(CN(C)C(=O)OC(C)(C)C)c2ccccc2</t>
+  </si>
+  <si>
+    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
+  </si>
+  <si>
+    <t>scheme37</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>scheme38</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
+  </si>
+  <si>
+    <t>C(=O)(COc1ccccc1)C</t>
+  </si>
+  <si>
+    <t>scheme39</t>
+  </si>
+  <si>
+    <t>C(=O)(C(OC)OC)C</t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(OCC)OCC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/c1ccccc1)C</t>
+  </si>
+  <si>
+    <t>scheme40</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/c1ccccc1)C(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/CCCCC)C</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/C)CC(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/C1=C(C)CCCC1(C)(C))C</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/C1=SC=CC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C=C(C)C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CCCCC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=Cc2c(OC)ccc(OC)c2CC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CCCCCC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=C(C)CCC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccccc1</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/j.tet.2008.06.104 </t>
@@ -642,13 +526,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">et al</t>
+      <t>et al</t>
     </r>
     <r>
       <rPr>
@@ -657,11 +541,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.,</t>
+      <t>.,</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -680,13 +564,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2008</t>
+      <t>2008</t>
     </r>
     <r>
       <rPr>
@@ -699,13 +583,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">64</t>
+      <t>64</t>
     </r>
     <r>
       <rPr>
@@ -714,129 +598,49 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, 8700-8708.</t>
+      <t>, 8700-8708.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">C(=O)(c1ncccc1)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ncccc1)c1cc(Cl)ccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cnccc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cnccc1)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cnccc1)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1cnccc1)c1cc(Cl)ccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1ccncc1)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(c2ccnc3cc(Cl)ccc23)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(c2ccnc3cc(Cl)ccc23)c1c(C)cccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(c2ccnc3cc(Cl)ccc23)c1ccc(C)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(CN2C=CN=C2)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1039/D2CC03701G</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">C. Wu, </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">et al., Chem. Commun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 58, 12696-12699</t>
-    </r>
+    <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1cc(Cl)ccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1ccc(C)cc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cnccc1)c1cc(Cl)ccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccncc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccccc1</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>O=C(c2ccnc3cc(Cl)ccc23)c1ccc(C)cc1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -845,7 +649,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
@@ -853,12 +657,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -868,7 +670,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -876,7 +678,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -897,18 +699,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -932,175 +740,468 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:AMK100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="77.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="63.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="10"/>
+    <col min="1" max="1" width="7.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="77.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="63.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="82" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1129,21 +1230,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:9" ht="23" customHeight="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>-8</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <f aca="false">50+C2/2</f>
+      <c r="D2" s="6">
+        <f t="shared" ref="D2:D33" si="0">50+C2/2</f>
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>301</v>
       </c>
       <c r="F2" s="6"/>
@@ -1155,21 +1256,21 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:9" ht="23" customHeight="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>-35</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <f aca="false">50+C3/2</f>
+      <c r="D3" s="6">
+        <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>301</v>
       </c>
       <c r="F3" s="6"/>
@@ -1181,21 +1282,21 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:9" ht="23" customHeight="1">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="n">
-        <f aca="false">50+C4/2</f>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>301</v>
       </c>
       <c r="F4" s="6"/>
@@ -1207,21 +1308,21 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:9" ht="23" customHeight="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>47</v>
       </c>
-      <c r="D5" s="6" t="n">
-        <f aca="false">50+C5/2</f>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>301</v>
       </c>
       <c r="F5" s="6"/>
@@ -1233,21 +1334,21 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:9" ht="18.5" customHeight="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>-99</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <f aca="false">50+C6/2</f>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>301</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1261,21 +1362,21 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>-99</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <f aca="false">50+C7/2</f>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>301</v>
       </c>
       <c r="F7" s="6"/>
@@ -1287,21 +1388,21 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>-99</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <f aca="false">50+C8/2</f>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>301</v>
       </c>
       <c r="F8" s="6"/>
@@ -1313,21 +1414,21 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>-96</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <f aca="false">50+C9/2</f>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>301</v>
       </c>
       <c r="F9" s="6"/>
@@ -1339,21 +1440,21 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>-99</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <f aca="false">50+C10/2</f>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>301</v>
       </c>
       <c r="F10" s="6"/>
@@ -1365,21 +1466,21 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>-97</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <f aca="false">50+C11/2</f>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>301</v>
       </c>
       <c r="F11" s="6"/>
@@ -1391,21 +1492,21 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>-98</v>
       </c>
-      <c r="D12" s="6" t="n">
-        <f aca="false">50+C12/2</f>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="6">
         <v>301</v>
       </c>
       <c r="F12" s="6"/>
@@ -1417,21 +1518,21 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>-96</v>
       </c>
-      <c r="D13" s="6" t="n">
-        <f aca="false">50+C13/2</f>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>301</v>
       </c>
       <c r="F13" s="6"/>
@@ -1443,21 +1544,21 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>-99</v>
       </c>
-      <c r="D14" s="6" t="n">
-        <f aca="false">50+C14/2</f>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>301</v>
       </c>
       <c r="F14" s="6"/>
@@ -1469,21 +1570,21 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>-92</v>
       </c>
-      <c r="D15" s="6" t="n">
-        <f aca="false">50+C15/2</f>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>301</v>
       </c>
       <c r="F15" s="6"/>
@@ -1495,21 +1596,21 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="6">
         <v>-98</v>
       </c>
-      <c r="D16" s="6" t="n">
-        <f aca="false">50+C16/2</f>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>301</v>
       </c>
       <c r="F16" s="6"/>
@@ -1521,21 +1622,21 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="6">
         <v>-100</v>
       </c>
-      <c r="D17" s="6" t="n">
-        <f aca="false">50+C17/2</f>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="6">
         <v>301</v>
       </c>
       <c r="F17" s="6"/>
@@ -1547,21 +1648,21 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>-98</v>
       </c>
-      <c r="D18" s="6" t="n">
-        <f aca="false">50+C18/2</f>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="6">
         <v>301</v>
       </c>
       <c r="F18" s="6"/>
@@ -1573,21 +1674,21 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="6">
         <v>-99.5</v>
       </c>
-      <c r="D19" s="6" t="n">
-        <f aca="false">50+C19/2</f>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="6">
         <v>301</v>
       </c>
       <c r="F19" s="6"/>
@@ -1599,21 +1700,21 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+    <row r="20" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="6">
         <v>-99</v>
       </c>
-      <c r="D20" s="6" t="n">
-        <f aca="false">50+C20/2</f>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="6">
         <v>301</v>
       </c>
       <c r="F20" s="6"/>
@@ -1625,21 +1726,21 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="6">
         <v>-99</v>
       </c>
-      <c r="D21" s="6" t="n">
-        <f aca="false">50+C21/2</f>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="6">
         <v>301</v>
       </c>
       <c r="F21" s="6"/>
@@ -1651,21 +1752,21 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="6">
         <v>-98</v>
       </c>
-      <c r="D22" s="6" t="n">
-        <f aca="false">50+C22/2</f>
+      <c r="D22" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="6">
         <v>301</v>
       </c>
       <c r="F22" s="6"/>
@@ -1677,21 +1778,21 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="6">
         <v>-98</v>
       </c>
-      <c r="D23" s="6" t="n">
-        <f aca="false">50+C23/2</f>
+      <c r="D23" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="6">
         <v>301</v>
       </c>
       <c r="F23" s="6"/>
@@ -1703,21 +1804,21 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="6">
         <v>-97</v>
       </c>
-      <c r="D24" s="6" t="n">
-        <f aca="false">50+C24/2</f>
+      <c r="D24" s="6">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="6">
         <v>301</v>
       </c>
       <c r="F24" s="6"/>
@@ -1729,21 +1830,21 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="6">
         <v>-97</v>
       </c>
-      <c r="D25" s="6" t="n">
-        <f aca="false">50+C25/2</f>
+      <c r="D25" s="6">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="6">
         <v>301</v>
       </c>
       <c r="F25" s="6"/>
@@ -1755,21 +1856,21 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="6">
         <v>-99.6</v>
       </c>
-      <c r="D26" s="6" t="n">
-        <f aca="false">50+C26/2</f>
-        <v>0.200000000000003</v>
-      </c>
-      <c r="E26" s="6" t="n">
+      <c r="D26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="E26" s="6">
         <v>301</v>
       </c>
       <c r="F26" s="6"/>
@@ -1781,21 +1882,21 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="6">
         <v>-99</v>
       </c>
-      <c r="D27" s="6" t="n">
-        <f aca="false">50+C27/2</f>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="6">
         <v>301</v>
       </c>
       <c r="F27" s="6"/>
@@ -1807,21 +1908,21 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="6">
         <v>-99.6</v>
       </c>
-      <c r="D28" s="6" t="n">
-        <f aca="false">50+C28/2</f>
-        <v>0.200000000000003</v>
-      </c>
-      <c r="E28" s="6" t="n">
+      <c r="D28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="E28" s="6">
         <v>301</v>
       </c>
       <c r="F28" s="6"/>
@@ -1833,21 +1934,21 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="6">
         <v>-100</v>
       </c>
-      <c r="D29" s="6" t="n">
-        <f aca="false">50+C29/2</f>
+      <c r="D29" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="6">
         <v>301</v>
       </c>
       <c r="F29" s="6"/>
@@ -1859,21 +1960,21 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+    <row r="30" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="6">
         <v>-99</v>
       </c>
-      <c r="D30" s="6" t="n">
-        <f aca="false">50+C30/2</f>
+      <c r="D30" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="6">
         <v>301</v>
       </c>
       <c r="F30" s="6"/>
@@ -1885,21 +1986,21 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="6">
         <v>-99.8</v>
       </c>
-      <c r="D31" s="6" t="n">
-        <f aca="false">50+C31/2</f>
-        <v>0.100000000000001</v>
-      </c>
-      <c r="E31" s="6" t="n">
+      <c r="D31" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="E31" s="6">
         <v>301</v>
       </c>
       <c r="F31" s="6"/>
@@ -1911,21 +2012,21 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+    <row r="32" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="6">
         <v>-99</v>
       </c>
-      <c r="D32" s="6" t="n">
-        <f aca="false">50+C32/2</f>
+      <c r="D32" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="6">
         <v>301</v>
       </c>
       <c r="F32" s="6"/>
@@ -1937,21 +2038,21 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="6">
         <v>-99</v>
       </c>
-      <c r="D33" s="6" t="n">
-        <f aca="false">50+C33/2</f>
+      <c r="D33" s="6">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="6">
         <v>301</v>
       </c>
       <c r="F33" s="6"/>
@@ -1963,21 +2064,21 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+    <row r="34" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="6">
         <v>-99</v>
       </c>
-      <c r="D34" s="6" t="n">
-        <f aca="false">50+C34/2</f>
+      <c r="D34" s="6">
+        <f t="shared" ref="D34:D65" si="1">50+C34/2</f>
         <v>0.5</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="6">
         <v>301</v>
       </c>
       <c r="F34" s="6"/>
@@ -1989,21 +2090,21 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="6" t="n">
+      <c r="C35" s="6">
         <v>-99</v>
       </c>
-      <c r="D35" s="6" t="n">
-        <f aca="false">50+C35/2</f>
+      <c r="D35" s="6">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="6">
         <v>301</v>
       </c>
       <c r="F35" s="6"/>
@@ -2015,21 +2116,21 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+    <row r="36" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="6" t="n">
+      <c r="C36" s="6">
         <v>-97</v>
       </c>
-      <c r="D36" s="6" t="n">
-        <f aca="false">50+C36/2</f>
+      <c r="D36" s="6">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="6">
         <v>301</v>
       </c>
       <c r="F36" s="6"/>
@@ -2041,21 +2142,21 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+    <row r="37" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="6" t="n">
+      <c r="C37" s="6">
         <v>-96</v>
       </c>
-      <c r="D37" s="6" t="n">
-        <f aca="false">50+C37/2</f>
+      <c r="D37" s="6">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="6">
         <v>301</v>
       </c>
       <c r="F37" s="6"/>
@@ -2067,21 +2168,21 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+    <row r="38" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="6">
         <v>-99.5</v>
       </c>
-      <c r="D38" s="6" t="n">
-        <f aca="false">50+C38/2</f>
+      <c r="D38" s="6">
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="6">
         <v>301</v>
       </c>
       <c r="F38" s="6"/>
@@ -2093,21 +2194,21 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+    <row r="39" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="6" t="n">
+      <c r="C39" s="6">
         <v>-98</v>
       </c>
-      <c r="D39" s="6" t="n">
-        <f aca="false">50+C39/2</f>
+      <c r="D39" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="6">
         <v>301</v>
       </c>
       <c r="F39" s="6"/>
@@ -2119,21 +2220,21 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
+    <row r="40" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="6">
         <v>-99</v>
       </c>
-      <c r="D40" s="6" t="n">
-        <f aca="false">50+C40/2</f>
+      <c r="D40" s="6">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="6">
         <v>301</v>
       </c>
       <c r="F40" s="6"/>
@@ -2145,21 +2246,21 @@
       </c>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="6" t="n">
+      <c r="C41" s="6">
         <v>96</v>
       </c>
-      <c r="D41" s="6" t="n">
-        <f aca="false">50+C41/2</f>
+      <c r="D41" s="6">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="6">
         <v>301</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -2173,21 +2274,21 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
+    <row r="42" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="6" t="n">
+      <c r="C42" s="6">
         <v>94</v>
       </c>
-      <c r="D42" s="6" t="n">
-        <f aca="false">50+C42/2</f>
+      <c r="D42" s="6">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="6">
         <v>301</v>
       </c>
       <c r="F42" s="6"/>
@@ -2199,21 +2300,21 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="6" t="n">
+      <c r="C43" s="6">
         <v>94</v>
       </c>
-      <c r="D43" s="6" t="n">
-        <f aca="false">50+C43/2</f>
+      <c r="D43" s="6">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="6">
         <v>301</v>
       </c>
       <c r="F43" s="6"/>
@@ -2225,21 +2326,21 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+    <row r="44" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="6" t="n">
+      <c r="C44" s="6">
         <v>96</v>
       </c>
-      <c r="D44" s="6" t="n">
-        <f aca="false">50+C44/2</f>
+      <c r="D44" s="6">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="6">
         <v>301</v>
       </c>
       <c r="F44" s="6"/>
@@ -2251,21 +2352,21 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="4">
         <v>93</v>
       </c>
-      <c r="D45" s="6" t="n">
-        <f aca="false">50+C45/2</f>
+      <c r="D45" s="6">
+        <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="6">
         <v>301</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -2281,21 +2382,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
+    <row r="46" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="4">
         <v>99</v>
       </c>
-      <c r="D46" s="6" t="n">
-        <f aca="false">50+C46/2</f>
+      <c r="D46" s="6">
+        <f t="shared" si="1"/>
         <v>99.5</v>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="6">
         <v>301</v>
       </c>
       <c r="F46" s="6"/>
@@ -2307,21 +2408,21 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="4">
         <v>97</v>
       </c>
-      <c r="D47" s="6" t="n">
-        <f aca="false">50+C47/2</f>
+      <c r="D47" s="6">
+        <f t="shared" si="1"/>
         <v>98.5</v>
       </c>
-      <c r="E47" s="6" t="n">
+      <c r="E47" s="6">
         <v>301</v>
       </c>
       <c r="F47" s="6"/>
@@ -2333,21 +2434,21 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
+    <row r="48" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="4">
         <v>97</v>
       </c>
-      <c r="D48" s="6" t="n">
-        <f aca="false">50+C48/2</f>
+      <c r="D48" s="6">
+        <f t="shared" si="1"/>
         <v>98.5</v>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="6">
         <v>301</v>
       </c>
       <c r="F48" s="6"/>
@@ -2359,21 +2460,21 @@
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+    <row r="49" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="4">
         <v>96</v>
       </c>
-      <c r="D49" s="6" t="n">
-        <f aca="false">50+C49/2</f>
+      <c r="D49" s="6">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="E49" s="6" t="n">
+      <c r="E49" s="6">
         <v>301</v>
       </c>
       <c r="F49" s="6"/>
@@ -2385,21 +2486,21 @@
       </c>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
+    <row r="50" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="4">
         <v>99.4</v>
       </c>
-      <c r="D50" s="6" t="n">
-        <f aca="false">50+C50/2</f>
+      <c r="D50" s="6">
+        <f t="shared" si="1"/>
         <v>99.7</v>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="6">
         <v>301</v>
       </c>
       <c r="F50" s="6"/>
@@ -2411,21 +2512,21 @@
       </c>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+    <row r="51" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="6" t="n">
+      <c r="C51" s="6">
         <v>-99</v>
       </c>
-      <c r="D51" s="6" t="n">
-        <f aca="false">50+C51/2</f>
+      <c r="D51" s="6">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="E51" s="6">
         <v>301</v>
       </c>
       <c r="F51" s="9" t="s">
@@ -2439,21 +2540,21 @@
       </c>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
+    <row r="52" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="6" t="n">
+      <c r="C52" s="6">
         <v>-98</v>
       </c>
-      <c r="D52" s="6" t="n">
-        <f aca="false">50+C52/2</f>
+      <c r="D52" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="6">
         <v>301</v>
       </c>
       <c r="F52" s="6"/>
@@ -2465,21 +2566,21 @@
       </c>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+    <row r="53" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="6" t="n">
+      <c r="C53" s="6">
         <v>-99</v>
       </c>
-      <c r="D53" s="6" t="n">
-        <f aca="false">50+C53/2</f>
+      <c r="D53" s="6">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="6">
         <v>301</v>
       </c>
       <c r="F53" s="6"/>
@@ -2491,21 +2592,21 @@
       </c>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
+    <row r="54" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="6" t="n">
+      <c r="C54" s="6">
         <v>-97</v>
       </c>
-      <c r="D54" s="6" t="n">
-        <f aca="false">50+C54/2</f>
+      <c r="D54" s="6">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="E54" s="6" t="n">
+      <c r="E54" s="6">
         <v>301</v>
       </c>
       <c r="F54" s="6"/>
@@ -2517,21 +2618,21 @@
       </c>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="6" t="n">
+      <c r="C55" s="6">
         <v>-99.7</v>
       </c>
-      <c r="D55" s="6" t="n">
-        <f aca="false">50+C55/2</f>
-        <v>0.149999999999999</v>
-      </c>
-      <c r="E55" s="6" t="n">
+      <c r="D55" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="E55" s="6">
         <v>301</v>
       </c>
       <c r="F55" s="6"/>
@@ -2543,21 +2644,21 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="n">
+    <row r="56" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="6" t="n">
+      <c r="C56" s="6">
         <v>-96</v>
       </c>
-      <c r="D56" s="6" t="n">
-        <f aca="false">50+C56/2</f>
+      <c r="D56" s="6">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E56" s="6" t="n">
+      <c r="E56" s="6">
         <v>301</v>
       </c>
       <c r="F56" s="6"/>
@@ -2569,21 +2670,21 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+    <row r="57" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="6" t="n">
+      <c r="C57" s="6">
         <v>-98</v>
       </c>
-      <c r="D57" s="6" t="n">
-        <f aca="false">50+C57/2</f>
+      <c r="D57" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E57" s="6" t="n">
+      <c r="E57" s="6">
         <v>301</v>
       </c>
       <c r="F57" s="6"/>
@@ -2595,21 +2696,21 @@
       </c>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
+    <row r="58" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="6" t="n">
+      <c r="C58" s="6">
         <v>-96</v>
       </c>
-      <c r="D58" s="6" t="n">
-        <f aca="false">50+C58/2</f>
+      <c r="D58" s="6">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E58" s="6" t="n">
+      <c r="E58" s="6">
         <v>301</v>
       </c>
       <c r="F58" s="6"/>
@@ -2621,21 +2722,21 @@
       </c>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+    <row r="59" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="6" t="n">
+      <c r="C59" s="6">
         <v>-99.6</v>
       </c>
-      <c r="D59" s="6" t="n">
-        <f aca="false">50+C59/2</f>
-        <v>0.200000000000003</v>
-      </c>
-      <c r="E59" s="6" t="n">
+      <c r="D59" s="6">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="E59" s="6">
         <v>301</v>
       </c>
       <c r="F59" s="6"/>
@@ -2647,21 +2748,21 @@
       </c>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
+    <row r="60" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="6" t="n">
+      <c r="C60" s="6">
         <v>-99.8</v>
       </c>
-      <c r="D60" s="6" t="n">
-        <f aca="false">50+C60/2</f>
-        <v>0.100000000000001</v>
-      </c>
-      <c r="E60" s="6" t="n">
+      <c r="D60" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="E60" s="6">
         <v>301</v>
       </c>
       <c r="F60" s="6"/>
@@ -2673,21 +2774,21 @@
       </c>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+    <row r="61" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="6" t="n">
+      <c r="C61" s="6">
         <v>-94</v>
       </c>
-      <c r="D61" s="6" t="n">
-        <f aca="false">50+C61/2</f>
+      <c r="D61" s="6">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E61" s="6" t="n">
+      <c r="E61" s="6">
         <v>301</v>
       </c>
       <c r="F61" s="6"/>
@@ -2699,21 +2800,21 @@
       </c>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="n">
+    <row r="62" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="6" t="n">
+      <c r="C62" s="6">
         <v>-95</v>
       </c>
-      <c r="D62" s="6" t="n">
-        <f aca="false">50+C62/2</f>
+      <c r="D62" s="6">
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="E62" s="6" t="n">
+      <c r="E62" s="6">
         <v>301</v>
       </c>
       <c r="F62" s="9" t="s">
@@ -2727,21 +2828,21 @@
       </c>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+    <row r="63" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="6" t="n">
+      <c r="C63" s="6">
         <v>-85</v>
       </c>
-      <c r="D63" s="6" t="n">
-        <f aca="false">50+C63/2</f>
+      <c r="D63" s="6">
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="E63" s="6" t="n">
+      <c r="E63" s="6">
         <v>301</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -2757,21 +2858,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
+    <row r="64" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="6" t="n">
+      <c r="C64" s="6">
         <v>-92</v>
       </c>
-      <c r="D64" s="6" t="n">
-        <f aca="false">50+C64/2</f>
+      <c r="D64" s="6">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E64" s="6" t="n">
+      <c r="E64" s="6">
         <v>301</v>
       </c>
       <c r="F64" s="9" t="s">
@@ -2787,21 +2888,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+    <row r="65" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="6" t="n">
+      <c r="C65" s="6">
         <v>-81</v>
       </c>
-      <c r="D65" s="6" t="n">
-        <f aca="false">50+C65/2</f>
+      <c r="D65" s="6">
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="E65" s="6" t="n">
+      <c r="E65" s="6">
         <v>301</v>
       </c>
       <c r="F65" s="6"/>
@@ -2815,21 +2916,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="n">
+    <row r="66" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="6" t="n">
+      <c r="C66" s="6">
         <v>93</v>
       </c>
-      <c r="D66" s="6" t="n">
-        <f aca="false">50+C66/2</f>
+      <c r="D66" s="6">
+        <f t="shared" ref="D66:D89" si="2">50+C66/2</f>
         <v>96.5</v>
       </c>
-      <c r="E66" s="6" t="n">
+      <c r="E66" s="6">
         <v>301</v>
       </c>
       <c r="F66" s="6"/>
@@ -2843,21 +2944,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+    <row r="67" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="6" t="n">
+      <c r="C67" s="6">
         <v>99</v>
       </c>
-      <c r="D67" s="6" t="n">
-        <f aca="false">50+C67/2</f>
+      <c r="D67" s="6">
+        <f t="shared" si="2"/>
         <v>99.5</v>
       </c>
-      <c r="E67" s="6" t="n">
+      <c r="E67" s="6">
         <v>301</v>
       </c>
       <c r="F67" s="6"/>
@@ -2871,21 +2972,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="n">
+    <row r="68" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="6" t="n">
+      <c r="C68" s="6">
         <v>95</v>
       </c>
-      <c r="D68" s="6" t="n">
-        <f aca="false">50+C68/2</f>
+      <c r="D68" s="6">
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
-      <c r="E68" s="6" t="n">
+      <c r="E68" s="6">
         <v>301</v>
       </c>
       <c r="F68" s="6"/>
@@ -2899,21 +3000,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+    <row r="69" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C69" s="6" t="n">
+      <c r="C69" s="6">
         <v>99.8</v>
       </c>
-      <c r="D69" s="6" t="n">
-        <f aca="false">50+C69/2</f>
+      <c r="D69" s="6">
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
-      <c r="E69" s="6" t="n">
+      <c r="E69" s="6">
         <v>301</v>
       </c>
       <c r="F69" s="6"/>
@@ -2927,21 +3028,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="n">
+    <row r="70" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="6" t="n">
+      <c r="C70" s="6">
         <v>99</v>
       </c>
-      <c r="D70" s="6" t="n">
-        <f aca="false">50+C70/2</f>
+      <c r="D70" s="6">
+        <f t="shared" si="2"/>
         <v>99.5</v>
       </c>
-      <c r="E70" s="6" t="n">
+      <c r="E70" s="6">
         <v>301</v>
       </c>
       <c r="F70" s="6"/>
@@ -2955,21 +3056,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+    <row r="71" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="6" t="n">
+      <c r="C71" s="6">
         <v>97</v>
       </c>
-      <c r="D71" s="6" t="n">
-        <f aca="false">50+C71/2</f>
+      <c r="D71" s="6">
+        <f t="shared" si="2"/>
         <v>98.5</v>
       </c>
-      <c r="E71" s="6" t="n">
+      <c r="E71" s="6">
         <v>301</v>
       </c>
       <c r="F71" s="9" t="s">
@@ -2985,21 +3086,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
+    <row r="72" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="6" t="n">
+      <c r="C72" s="6">
         <v>-97.5</v>
       </c>
-      <c r="D72" s="6" t="n">
-        <f aca="false">50+C72/2</f>
+      <c r="D72" s="6">
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="E72" s="6" t="n">
+      <c r="E72" s="6">
         <v>301</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -3013,21 +3114,21 @@
       </c>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+    <row r="73" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="6" t="n">
+      <c r="C73" s="6">
         <v>-92</v>
       </c>
-      <c r="D73" s="6" t="n">
-        <f aca="false">50+C73/2</f>
+      <c r="D73" s="6">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E73" s="6" t="n">
+      <c r="E73" s="6">
         <v>301</v>
       </c>
       <c r="F73" s="6"/>
@@ -3039,21 +3140,21 @@
       </c>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="n">
+    <row r="74" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="6" t="n">
+      <c r="C74" s="6">
         <v>-99</v>
       </c>
-      <c r="D74" s="6" t="n">
-        <f aca="false">50+C74/2</f>
+      <c r="D74" s="6">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E74" s="6">
         <v>301</v>
       </c>
       <c r="F74" s="6"/>
@@ -3065,21 +3166,21 @@
       </c>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+    <row r="75" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="6" t="n">
+      <c r="C75" s="6">
         <v>-80</v>
       </c>
-      <c r="D75" s="6" t="n">
-        <f aca="false">50+C75/2</f>
+      <c r="D75" s="6">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="E75" s="6" t="n">
+      <c r="E75" s="6">
         <v>301</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -3095,21 +3196,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
+    <row r="76" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="6" t="n">
+      <c r="C76" s="6">
         <v>-98</v>
       </c>
-      <c r="D76" s="6" t="n">
-        <f aca="false">50+C76/2</f>
+      <c r="D76" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E76" s="6" t="n">
+      <c r="E76" s="6">
         <v>301</v>
       </c>
       <c r="F76" s="6"/>
@@ -3123,21 +3224,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+    <row r="77" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="6" t="n">
+      <c r="C77" s="6">
         <v>95</v>
       </c>
-      <c r="D77" s="6" t="n">
-        <f aca="false">50+C77/2</f>
+      <c r="D77" s="6">
+        <f t="shared" si="2"/>
         <v>97.5</v>
       </c>
-      <c r="E77" s="6" t="n">
+      <c r="E77" s="6">
         <v>301</v>
       </c>
       <c r="F77" s="6"/>
@@ -3151,21 +3252,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
+    <row r="78" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="6" t="n">
+      <c r="C78" s="6">
         <v>37</v>
       </c>
-      <c r="D78" s="6" t="n">
-        <f aca="false">50+C78/2</f>
+      <c r="D78" s="6">
+        <f t="shared" si="2"/>
         <v>68.5</v>
       </c>
-      <c r="E78" s="6" t="n">
+      <c r="E78" s="6">
         <v>301</v>
       </c>
       <c r="F78" s="6"/>
@@ -3179,21 +3280,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+    <row r="79" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C79" s="6" t="n">
+      <c r="C79" s="6">
         <v>-97</v>
       </c>
-      <c r="D79" s="6" t="n">
-        <f aca="false">50+C79/2</f>
+      <c r="D79" s="6">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="E79" s="6" t="n">
+      <c r="E79" s="6">
         <v>301</v>
       </c>
       <c r="F79" s="9" t="s">
@@ -3207,21 +3308,21 @@
       </c>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
+    <row r="80" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="6" t="n">
+      <c r="C80" s="6">
         <v>-86</v>
       </c>
-      <c r="D80" s="6" t="n">
-        <f aca="false">50+C80/2</f>
+      <c r="D80" s="6">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E80" s="6" t="n">
+      <c r="E80" s="6">
         <v>301</v>
       </c>
       <c r="F80" s="6"/>
@@ -3233,21 +3334,21 @@
       </c>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+    <row r="81" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C81" s="6" t="n">
+      <c r="C81" s="6">
         <v>-97</v>
       </c>
-      <c r="D81" s="6" t="n">
-        <f aca="false">50+C81/2</f>
+      <c r="D81" s="6">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="E81" s="6" t="n">
+      <c r="E81" s="6">
         <v>301</v>
       </c>
       <c r="F81" s="6"/>
@@ -3259,21 +3360,21 @@
       </c>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="n">
+    <row r="82" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C82" s="6" t="n">
+      <c r="C82" s="6">
         <v>-90</v>
       </c>
-      <c r="D82" s="6" t="n">
-        <f aca="false">50+C82/2</f>
+      <c r="D82" s="6">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E82" s="6" t="n">
+      <c r="E82" s="6">
         <v>301</v>
       </c>
       <c r="F82" s="6"/>
@@ -3285,21 +3386,21 @@
       </c>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+    <row r="83" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="6" t="n">
+      <c r="C83" s="6">
         <v>-94</v>
       </c>
-      <c r="D83" s="6" t="n">
-        <f aca="false">50+C83/2</f>
+      <c r="D83" s="6">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E83" s="6" t="n">
+      <c r="E83" s="6">
         <v>301</v>
       </c>
       <c r="F83" s="6"/>
@@ -3311,21 +3412,21 @@
       </c>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="n">
+    <row r="84" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="6" t="n">
+      <c r="C84" s="6">
         <v>-91</v>
       </c>
-      <c r="D84" s="6" t="n">
-        <f aca="false">50+C84/2</f>
+      <c r="D84" s="6">
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="E84" s="6" t="n">
+      <c r="E84" s="6">
         <v>301</v>
       </c>
       <c r="F84" s="6"/>
@@ -3337,21 +3438,21 @@
       </c>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+    <row r="85" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C85" s="6" t="n">
+      <c r="C85" s="6">
         <v>-93</v>
       </c>
-      <c r="D85" s="6" t="n">
-        <f aca="false">50+C85/2</f>
+      <c r="D85" s="6">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="E85" s="6" t="n">
+      <c r="E85" s="6">
         <v>301</v>
       </c>
       <c r="F85" s="6"/>
@@ -3363,21 +3464,21 @@
       </c>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
+    <row r="86" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="6" t="n">
+      <c r="C86" s="6">
         <v>-100</v>
       </c>
-      <c r="D86" s="6" t="n">
-        <f aca="false">50+C86/2</f>
+      <c r="D86" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E86" s="6" t="n">
+      <c r="E86" s="6">
         <v>301</v>
       </c>
       <c r="F86" s="6"/>
@@ -3389,21 +3490,21 @@
       </c>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+    <row r="87" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="6" t="n">
+      <c r="C87" s="6">
         <v>-94</v>
       </c>
-      <c r="D87" s="6" t="n">
-        <f aca="false">50+C87/2</f>
+      <c r="D87" s="6">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E87" s="6" t="n">
+      <c r="E87" s="6">
         <v>301</v>
       </c>
       <c r="F87" s="6"/>
@@ -3415,21 +3516,21 @@
       </c>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="n">
+    <row r="88" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C88" s="6" t="n">
+      <c r="C88" s="6">
         <v>-99</v>
       </c>
-      <c r="D88" s="6" t="n">
-        <f aca="false">50+C88/2</f>
+      <c r="D88" s="6">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="E88" s="6" t="n">
+      <c r="E88" s="6">
         <v>301</v>
       </c>
       <c r="F88" s="6"/>
@@ -3441,21 +3542,21 @@
       </c>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+    <row r="89" spans="1:9" ht="18.25" customHeight="1">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C89" s="14" t="n">
+      <c r="C89" s="14">
         <v>-99</v>
       </c>
-      <c r="D89" s="6" t="n">
-        <f aca="false">50+C89/2</f>
+      <c r="D89" s="6">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="E89" s="14" t="n">
+      <c r="E89" s="14">
         <v>301</v>
       </c>
       <c r="F89" s="14"/>
@@ -3467,898 +3568,402 @@
       </c>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="n">
+    <row r="90" spans="1:9" ht="23" customHeight="1">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C90" s="6" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D90" s="6" t="n">
-        <f aca="false">50+C90/2</f>
-        <v>98.75</v>
-      </c>
-      <c r="E90" s="6" t="n">
-        <v>298</v>
+      <c r="C90" s="6">
+        <v>-70</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" ref="D90:D100" si="3">50+C90/2</f>
+        <v>15</v>
+      </c>
+      <c r="E90" s="6">
+        <v>303</v>
       </c>
       <c r="F90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="H90" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+    <row r="91" spans="1:9" ht="23" customHeight="1">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" s="6" t="n">
-        <v>97</v>
-      </c>
-      <c r="D91" s="6" t="n">
-        <f aca="false">50+C91/2</f>
-        <v>98.5</v>
-      </c>
-      <c r="E91" s="6" t="n">
-        <v>298</v>
+      <c r="B91" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="6">
+        <v>-60</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E91" s="6">
+        <v>303</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H91" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H91" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="n">
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" ht="23" customHeight="1">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C92" s="6" t="n">
-        <v>92</v>
-      </c>
-      <c r="D92" s="6" t="n">
-        <f aca="false">50+C92/2</f>
-        <v>96</v>
-      </c>
-      <c r="E92" s="6" t="n">
-        <v>298</v>
+      <c r="B92" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="6">
+        <v>-50</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="E92" s="6">
+        <v>303</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H92" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H92" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" ht="23" customHeight="1">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="6" t="n">
-        <v>99</v>
-      </c>
-      <c r="D93" s="6" t="n">
-        <f aca="false">50+C93/2</f>
-        <v>99.5</v>
-      </c>
-      <c r="E93" s="6" t="n">
-        <v>298</v>
+      <c r="B93" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="6">
+        <v>69</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="3"/>
+        <v>84.5</v>
+      </c>
+      <c r="E93" s="6">
+        <v>303</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H93" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H93" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="n">
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" ht="23" customHeight="1">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C94" s="6" t="n">
-        <v>97</v>
-      </c>
-      <c r="D94" s="6" t="n">
-        <f aca="false">50+C94/2</f>
-        <v>98.5</v>
-      </c>
-      <c r="E94" s="6" t="n">
-        <v>298</v>
+      <c r="B94" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="6">
+        <v>-68</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E94" s="6">
+        <v>303</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H94" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H94" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" ht="23" customHeight="1">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="6" t="n">
-        <v>95</v>
-      </c>
-      <c r="D95" s="6" t="n">
-        <f aca="false">50+C95/2</f>
-        <v>97.5</v>
-      </c>
-      <c r="E95" s="6" t="n">
-        <v>298</v>
+      <c r="B95" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="6">
+        <v>78</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="E95" s="6">
+        <v>303</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H95" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H95" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="n">
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" ht="23" customHeight="1">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="6" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="D96" s="6" t="n">
-        <f aca="false">50+C96/2</f>
-        <v>71.1</v>
-      </c>
-      <c r="E96" s="6" t="n">
-        <v>298</v>
+      <c r="B96" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="6">
+        <v>55</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="3"/>
+        <v>77.5</v>
+      </c>
+      <c r="E96" s="6">
+        <v>303</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H96" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H96" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" ht="23" customHeight="1">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C97" s="6" t="n">
-        <v>-83.4</v>
-      </c>
-      <c r="D97" s="6" t="n">
-        <f aca="false">50+C97/2</f>
-        <v>8.3</v>
-      </c>
-      <c r="E97" s="6" t="n">
-        <v>298</v>
+      <c r="B97" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="6">
+        <v>54</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="E97" s="6">
+        <v>303</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H97" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H97" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="n">
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" ht="23" customHeight="1">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="6">
+        <v>90</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="E98" s="6">
+        <v>303</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" ht="23" customHeight="1">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="6" t="n">
-        <v>-74.8</v>
-      </c>
-      <c r="D98" s="6" t="n">
-        <f aca="false">50+C98/2</f>
-        <v>12.6</v>
-      </c>
-      <c r="E98" s="6" t="n">
-        <v>298</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="7" t="s">
+      <c r="C99" s="14">
+        <v>-13</v>
+      </c>
+      <c r="D99" s="14">
+        <f t="shared" si="3"/>
+        <v>43.5</v>
+      </c>
+      <c r="E99" s="14">
+        <v>303</v>
+      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H99" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H98" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" s="15" t="s">
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" ht="23" customHeight="1">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C99" s="6" t="n">
-        <v>-89.5</v>
-      </c>
-      <c r="D99" s="6" t="n">
-        <f aca="false">50+C99/2</f>
-        <v>5.25</v>
-      </c>
-      <c r="E99" s="6" t="n">
-        <v>298</v>
-      </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C100" s="6" t="n">
-        <v>-98.7</v>
-      </c>
-      <c r="D100" s="6" t="n">
-        <f aca="false">50+C100/2</f>
-        <v>0.649999999999999</v>
-      </c>
-      <c r="E100" s="6" t="n">
-        <v>298</v>
+      <c r="C100" s="6">
+        <v>80</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E100" s="6">
+        <v>303</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H100" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H100" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C101" s="6" t="n">
-        <v>91.4</v>
-      </c>
-      <c r="D101" s="6" t="n">
-        <f aca="false">50+C101/2</f>
-        <v>95.7</v>
-      </c>
-      <c r="E101" s="6" t="n">
-        <v>298</v>
-      </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C102" s="6" t="n">
-        <v>94.4</v>
-      </c>
-      <c r="D102" s="6" t="n">
-        <f aca="false">50+C102/2</f>
-        <v>97.2</v>
-      </c>
-      <c r="E102" s="6" t="n">
-        <v>298</v>
-      </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I102" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C103" s="6" t="n">
-        <v>93.6</v>
-      </c>
-      <c r="D103" s="6" t="n">
-        <f aca="false">50+C103/2</f>
-        <v>96.8</v>
-      </c>
-      <c r="E103" s="6" t="n">
-        <v>298</v>
-      </c>
-      <c r="F103" s="6"/>
-      <c r="G103" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C104" s="6" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="D104" s="6" t="n">
-        <f aca="false">50+C104/2</f>
-        <v>99.75</v>
-      </c>
-      <c r="E104" s="6" t="n">
-        <v>298</v>
-      </c>
-      <c r="F104" s="6"/>
-      <c r="G104" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C105" s="6" t="n">
-        <v>-88</v>
-      </c>
-      <c r="D105" s="6" t="n">
-        <f aca="false">50+C105/2</f>
-        <v>6</v>
-      </c>
-      <c r="E105" s="6" t="n">
-        <v>298</v>
-      </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" s="6" t="n">
-        <v>-70</v>
-      </c>
-      <c r="D106" s="6" t="n">
-        <f aca="false">50+C106/2</f>
-        <v>15</v>
-      </c>
-      <c r="E106" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" s="6" t="n">
-        <v>-60</v>
-      </c>
-      <c r="D107" s="6" t="n">
-        <f aca="false">50+C107/2</f>
-        <v>20</v>
-      </c>
-      <c r="E107" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F107" s="6"/>
-      <c r="G107" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I107" s="6"/>
-    </row>
-    <row r="108" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C108" s="6" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D108" s="6" t="n">
-        <f aca="false">50+C108/2</f>
-        <v>25</v>
-      </c>
-      <c r="E108" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I108" s="6"/>
-    </row>
-    <row r="109" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C109" s="6" t="n">
-        <v>69</v>
-      </c>
-      <c r="D109" s="6" t="n">
-        <f aca="false">50+C109/2</f>
-        <v>84.5</v>
-      </c>
-      <c r="E109" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F109" s="6"/>
-      <c r="G109" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I109" s="6"/>
-    </row>
-    <row r="110" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C110" s="6" t="n">
-        <v>-68</v>
-      </c>
-      <c r="D110" s="6" t="n">
-        <f aca="false">50+C110/2</f>
-        <v>16</v>
-      </c>
-      <c r="E110" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F110" s="6"/>
-      <c r="G110" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I110" s="6"/>
-    </row>
-    <row r="111" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C111" s="6" t="n">
-        <v>78</v>
-      </c>
-      <c r="D111" s="6" t="n">
-        <f aca="false">50+C111/2</f>
-        <v>89</v>
-      </c>
-      <c r="E111" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I111" s="6"/>
-    </row>
-    <row r="112" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C112" s="6" t="n">
-        <v>55</v>
-      </c>
-      <c r="D112" s="6" t="n">
-        <f aca="false">50+C112/2</f>
-        <v>77.5</v>
-      </c>
-      <c r="E112" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F112" s="6"/>
-      <c r="G112" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I112" s="6"/>
-    </row>
-    <row r="113" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C113" s="6" t="n">
-        <v>54</v>
-      </c>
-      <c r="D113" s="6" t="n">
-        <f aca="false">50+C113/2</f>
-        <v>77</v>
-      </c>
-      <c r="E113" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F113" s="6"/>
-      <c r="G113" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I113" s="6"/>
-    </row>
-    <row r="114" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C114" s="6" t="n">
-        <v>90</v>
-      </c>
-      <c r="D114" s="6" t="n">
-        <f aca="false">50+C114/2</f>
-        <v>95</v>
-      </c>
-      <c r="E114" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I114" s="6"/>
-    </row>
-    <row r="115" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C115" s="14" t="n">
-        <v>-13</v>
-      </c>
-      <c r="D115" s="14" t="n">
-        <f aca="false">50+C115/2</f>
-        <v>43.5</v>
-      </c>
-      <c r="E115" s="14" t="n">
-        <v>303</v>
-      </c>
-      <c r="F115" s="14"/>
-      <c r="G115" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I115" s="6"/>
-    </row>
-    <row r="116" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C116" s="6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D116" s="6" t="n">
-        <f aca="false">50+C116/2</f>
-        <v>90</v>
-      </c>
-      <c r="E116" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="F116" s="6"/>
-      <c r="G116" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I116" s="6"/>
-    </row>
-    <row r="117" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C117" s="6" t="n">
-        <v>99</v>
-      </c>
-      <c r="D117" s="6" t="n">
-        <f aca="false">50+C117/2</f>
-        <v>99.5</v>
-      </c>
-      <c r="E117" s="6" t="n">
-        <v>298</v>
-      </c>
-      <c r="F117" s="6"/>
-      <c r="G117" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H117" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="I117" s="6"/>
+      <c r="I100" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://doi.org/10.1021/ol9904139 "/>
-    <hyperlink ref="G3" r:id="rId2" display="https://doi.org/10.1021/ol9904139 "/>
-    <hyperlink ref="G4" r:id="rId3" display="https://doi.org/10.1021/ol9904139 "/>
-    <hyperlink ref="G5" r:id="rId4" display="https://doi.org/10.1021/ol9904139 "/>
-    <hyperlink ref="G6" r:id="rId5" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G7" r:id="rId6" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G8" r:id="rId7" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G9" r:id="rId8" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G11" r:id="rId10" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G12" r:id="rId11" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G13" r:id="rId12" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G14" r:id="rId13" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G15" r:id="rId14" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G16" r:id="rId15" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G17" r:id="rId16" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G18" r:id="rId17" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G19" r:id="rId18" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G20" r:id="rId19" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G21" r:id="rId20" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G22" r:id="rId21" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G23" r:id="rId22" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G24" r:id="rId23" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G25" r:id="rId24" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G26" r:id="rId25" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G27" r:id="rId26" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G28" r:id="rId27" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G29" r:id="rId28" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G30" r:id="rId29" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G31" r:id="rId30" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G32" r:id="rId31" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G33" r:id="rId32" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G34" r:id="rId33" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G35" r:id="rId34" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G36" r:id="rId35" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G37" r:id="rId36" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G38" r:id="rId37" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G39" r:id="rId38" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G40" r:id="rId39" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G41" r:id="rId40" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G42" r:id="rId41" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G43" r:id="rId42" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G44" r:id="rId43" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G45" r:id="rId44" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G46" r:id="rId45" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G47" r:id="rId46" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G48" r:id="rId47" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G49" r:id="rId48" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G50" r:id="rId49" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G51" r:id="rId50" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G52" r:id="rId51" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G53" r:id="rId52" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G54" r:id="rId53" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G55" r:id="rId54" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G56" r:id="rId55" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G57" r:id="rId56" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G58" r:id="rId57" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G59" r:id="rId58" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G60" r:id="rId59" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G61" r:id="rId60" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G62" r:id="rId61" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G63" r:id="rId62" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G64" r:id="rId63" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G65" r:id="rId64" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G66" r:id="rId65" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G67" r:id="rId66" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G68" r:id="rId67" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G69" r:id="rId68" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G70" r:id="rId69" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G71" r:id="rId70" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G72" r:id="rId71" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G73" r:id="rId72" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G74" r:id="rId73" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G75" r:id="rId74" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G76" r:id="rId75" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G77" r:id="rId76" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G78" r:id="rId77" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G79" r:id="rId78" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G80" r:id="rId79" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G81" r:id="rId80" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G82" r:id="rId81" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G83" r:id="rId82" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G84" r:id="rId83" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G85" r:id="rId84" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G86" r:id="rId85" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G87" r:id="rId86" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G88" r:id="rId87" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G89" r:id="rId88" display="https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5"/>
-    <hyperlink ref="G90" r:id="rId89" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G91" r:id="rId90" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G92" r:id="rId91" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G93" r:id="rId92" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G94" r:id="rId93" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G95" r:id="rId94" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G96" r:id="rId95" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G97" r:id="rId96" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G98" r:id="rId97" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G99" r:id="rId98" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G100" r:id="rId99" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G101" r:id="rId100" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G102" r:id="rId101" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G103" r:id="rId102" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G104" r:id="rId103" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G105" r:id="rId104" display="https://doi.org/10.1021/ol0360795 "/>
-    <hyperlink ref="G106" r:id="rId105" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G107" r:id="rId106" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G108" r:id="rId107" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G109" r:id="rId108" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G110" r:id="rId109" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G111" r:id="rId110" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G112" r:id="rId111" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G113" r:id="rId112" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G114" r:id="rId113" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G115" r:id="rId114" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G116" r:id="rId115" display="https://doi.org/10.1016/j.tet.2008.06.104 "/>
-    <hyperlink ref="G117" r:id="rId116" display="https://doi.org/10.1039/D2CC03701G"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="G92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="G97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
